--- a/events/rumors cabaret 420 - 530.xlsx
+++ b/events/rumors cabaret 420 - 530.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Rumors Cabaret</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>5/31/2015 1:30am</t>
+  </si>
+  <si>
+    <t>55302d1e7dd54294226fa3d8</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,301 +518,344 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
       <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
     </row>
